--- a/biology/Zoologie/Halieutopsis/Halieutopsis.xlsx
+++ b/biology/Zoologie/Halieutopsis/Halieutopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halieutopsis est un genre de poissons marins benthiques de la famille des Ogcocephalidae (ordre des Lophiiformes) et communément appelés « Poissons chauve-souris ». Il s'agit de poissons de petite taille vivant en eaux profondes.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Halieutopsis se rencontrent dans les océans Indien et Pacifique[1] et ce à une profondeur comprise entre 100 et 4 020 m. Seule l'espèce Halieutopsis tumifrons est présente dans l'Est du Pacifique, au large des îles Galápagos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Halieutopsis se rencontrent dans les océans Indien et Pacifique et ce à une profondeur comprise entre 100 et 4 020 m. Seule l'espèce Halieutopsis tumifrons est présente dans l'Est du Pacifique, au large des îles Galápagos.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Halieutopsis présentent une grande tête et un disque corporel, ainsi qu'une queue relativement courte. La tête est déprimée, il n’y a pas de dents sur le vomer et la palatin. Elles ont un esca habituellement avec deux grands lobes ventraux sphériques et un lobe dorsal médian. Les écailles de la ligne latérale avec des neurostomates de chaque côté de l’anus. La base de la nageoire pectorale est fixée au corps et enfouie sous la peau et des filaments dibranchiaux sont présents sur seulement deux arcs branchiaux.
 Halieutopsis présente des caractéristiques morphologiques similaires à celles des genres Coelophrys, Dibranchus et Solociaguama. Une analyse comparée menée par Ho en 2022 a révélé des similitudes morphologiques entre Halieutopsis et Coelophrys, ce qui a suscité des discussions sur la possibilité que ces deux genres soient synonymes. Cependant des examens plus approfondis ont conclu à leur distinction.
@@ -587,9 +603,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 mai 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 mai 2024) :
 Halieutopsis andriashevi Bradbury, 1988
 Halieutopsis bathyoreos Bradbury, 1988
 Halieutopsis galatea Bradbury, 1988
@@ -627,9 +645,11 @@
           <t>Statut de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La majorité des espèces répertoriées dans la liste rouge de l’IUCN sont classées comme « least concerned » (H. bathyoreos, H. galatea, H. ingerorum, H. margaretae, H. simula, H. stellifera, H. vermicularis). D’autres n’ont pas assez de données (« data deficient ») (H. andreashevi, H. tumifrons)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité des espèces répertoriées dans la liste rouge de l’IUCN sont classées comme « least concerned » (H. bathyoreos, H. galatea, H. ingerorum, H. margaretae, H. simula, H. stellifera, H. vermicularis). D’autres n’ont pas assez de données (« data deficient ») (H. andreashevi, H. tumifrons).
 </t>
         </is>
       </c>
@@ -658,11 +678,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Halieutopsis Garman, 1899[2],[4].
-Publication originale
-(en) S. Garman, « The Fishes », Memoirs of the Museum of Comparative Zoology, Cambridge (Massachusetts), vol. 24,‎ 1899, p. 1-431 (ISSN 1067-8611, lire en ligne, consulté le 9 mai 2024).</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Halieutopsis Garman, 1899,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Halieutopsis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halieutopsis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) S. Garman, « The Fishes », Memoirs of the Museum of Comparative Zoology, Cambridge (Massachusetts), vol. 24,‎ 1899, p. 1-431 (ISSN 1067-8611, lire en ligne, consulté le 9 mai 2024).</t>
         </is>
       </c>
     </row>
